--- a/Tester Results/TEST_DATE_MERGED_SEX.xlsx
+++ b/Tester Results/TEST_DATE_MERGED_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,28 +827,6 @@
         <v>-5624.201577160497</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.878712143282137e-06</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999990606443696</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tester Results/TEST_DATE_MERGED_SEX.xlsx
+++ b/Tester Results/TEST_DATE_MERGED_SEX.xlsx
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.59745650525333</v>
+        <v>37.50633369621267</v>
       </c>
       <c r="C2" t="n">
-        <v>6.851979470464909e-09</v>
+        <v>7.171386340427883e-09</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.784506444668303e-08</v>
+        <v>2.859002679960965e-08</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.4558470507544581</v>
+        <v>-0.4517318244170097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7790123456790159</v>
+        <v>0.7694444444444439</v>
       </c>
     </row>
     <row r="3">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.206166145958638</v>
+        <v>3.974007796160811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1220794675451724</v>
+        <v>0.1371055930171987</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -554,16 +554,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.03736930679005</v>
+        <v>10.26722133260884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004011120487433214</v>
+        <v>0.005895236268602661</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003288141532409197</v>
+        <v>0.007796004738572737</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.2346536351165981</v>
+        <v>0.2090192043895748</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6990740740740726</v>
+        <v>-0.5743827160493815</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.20129349154166</v>
+        <v>46.5235765597494</v>
       </c>
       <c r="C5" t="n">
-        <v>9.279329362026081e-11</v>
+        <v>7.898301552939476e-11</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.263572624197426e-10</v>
+        <v>5.93941668184759e-10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.4864540466392319</v>
+        <v>0.4832818930041153</v>
       </c>
       <c r="J5" t="n">
-        <v>-53.56635802469137</v>
+        <v>-53.93966049382718</v>
       </c>
     </row>
     <row r="6">
@@ -634,16 +634,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.27547635942742</v>
+        <v>46.41714865508844</v>
       </c>
       <c r="C6" t="n">
-        <v>8.941450668761467e-11</v>
+        <v>8.329985332644966e-11</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5.326968579825006e-10</v>
+        <v>6.74819959515874e-10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4858539094650206</v>
+        <v>0.4809670781893004</v>
       </c>
       <c r="J6" t="n">
-        <v>-53.40085493827165</v>
+        <v>-53.69464969135802</v>
       </c>
     </row>
     <row r="7">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.79425394957885</v>
+        <v>46.02847555202307</v>
       </c>
       <c r="C7" t="n">
-        <v>1.137376114009672e-10</v>
+        <v>1.01168084839597e-10</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>8.905544844176951e-10</v>
+        <v>1.046509906154906e-09</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.4799382716049383</v>
+        <v>0.4756515775034293</v>
       </c>
       <c r="J7" t="n">
-        <v>-47.60989506172838</v>
+        <v>-48.1494305555555</v>
       </c>
     </row>
     <row r="8">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.91891440852799</v>
+        <v>43.35170306563906</v>
       </c>
       <c r="C8" t="n">
-        <v>2.904884776542532e-10</v>
+        <v>3.857423205136532e-10</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.430369287074106e-10</v>
+        <v>3.510740938497966e-10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.4992283950617284</v>
+        <v>0.4950274348422496</v>
       </c>
       <c r="J8" t="n">
-        <v>-20.52731327160492</v>
+        <v>-20.60939351851852</v>
       </c>
     </row>
     <row r="9">
@@ -754,16 +754,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.413196159122094</v>
+        <v>7.343975941753797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02456093565907354</v>
+        <v>0.02542587377490194</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02314640611903506</v>
+        <v>0.02354937928793681</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.2241083676268862</v>
+        <v>-0.2254801097393691</v>
       </c>
       <c r="J9" t="n">
-        <v>14.49990277777775</v>
+        <v>14.15787499999999</v>
       </c>
     </row>
     <row r="10">
@@ -794,16 +794,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.12138651471969</v>
+        <v>55.77450036931509</v>
       </c>
       <c r="C10" t="n">
-        <v>6.507224046698775e-13</v>
+        <v>7.73964657384419e-13</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2.109496189009878e-13</v>
+        <v>2.674750861959746e-13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.5581275720164609</v>
+        <v>0.5565843621399177</v>
       </c>
       <c r="J10" t="n">
-        <v>-5624.201577160497</v>
+        <v>-5627.705165123458</v>
       </c>
     </row>
   </sheetData>
